--- a/fhir/indisa/StructureDefinition-PatientKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-PatientKlinic.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$236</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$232</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8503" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8359" uniqueCount="823">
   <si>
     <t>Path</t>
   </si>
@@ -1808,16 +1808,6 @@
   </si>
   <si>
     <t>Patient.address.city.extension</t>
-  </si>
-  <si>
-    <t>regionalLocationIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition/RegionalLocationIdentifier}
-</t>
-  </si>
-  <si>
-    <t>Identificador regional</t>
   </si>
   <si>
     <t>Patient.address.city.value</t>
@@ -2722,7 +2712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN236"/>
+  <dimension ref="A1:AN232"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2732,7 +2722,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.58984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.55859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -18541,13 +18531,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B139" t="s" s="2">
         <v>579</v>
       </c>
+      <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
         <v>44</v>
       </c>
@@ -18559,7 +18547,7 @@
         <v>51</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>44</v>
@@ -18568,13 +18556,13 @@
         <v>44</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>580</v>
+        <v>53</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>581</v>
+        <v>405</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>200</v>
+        <v>406</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -18598,7 +18586,7 @@
         <v>44</v>
       </c>
       <c r="V139" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="W139" t="s" s="2">
         <v>44</v>
@@ -18625,19 +18613,19 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>44</v>
@@ -18657,11 +18645,11 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>44</v>
+        <v>581</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18677,18 +18665,20 @@
         <v>44</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>405</v>
+        <v>582</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M140" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>44</v>
@@ -18701,7 +18691,7 @@
         <v>44</v>
       </c>
       <c r="S140" t="s" s="2">
-        <v>44</v>
+        <v>585</v>
       </c>
       <c r="T140" t="s" s="2">
         <v>44</v>
@@ -18710,7 +18700,7 @@
         <v>44</v>
       </c>
       <c r="V140" t="s" s="2">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="W140" t="s" s="2">
         <v>44</v>
@@ -18737,7 +18727,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>408</v>
+        <v>586</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18749,10 +18739,10 @@
         <v>44</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>44</v>
+        <v>587</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>44</v>
@@ -18761,7 +18751,7 @@
         <v>44</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>44</v>
+        <v>588</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18769,11 +18759,11 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>584</v>
+        <v>44</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18789,20 +18779,18 @@
         <v>44</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J141" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>585</v>
+        <v>401</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>44</v>
@@ -18815,7 +18803,7 @@
         <v>44</v>
       </c>
       <c r="S141" t="s" s="2">
-        <v>588</v>
+        <v>44</v>
       </c>
       <c r="T141" t="s" s="2">
         <v>44</v>
@@ -18851,7 +18839,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>589</v>
+        <v>67</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18863,10 +18851,10 @@
         <v>44</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>590</v>
+        <v>44</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>44</v>
@@ -18875,7 +18863,7 @@
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>591</v>
+        <v>44</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18883,7 +18871,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18894,7 +18882,7 @@
         <v>42</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>44</v>
@@ -18906,13 +18894,13 @@
         <v>44</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>401</v>
+        <v>199</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>402</v>
+        <v>200</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -18951,31 +18939,29 @@
         <v>44</v>
       </c>
       <c r="AA142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB142" s="2"/>
       <c r="AC142" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD142" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>44</v>
@@ -18995,7 +18981,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19006,7 +18992,7 @@
         <v>42</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>44</v>
@@ -19018,13 +19004,13 @@
         <v>44</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>199</v>
+        <v>405</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>200</v>
+        <v>406</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -19048,7 +19034,7 @@
         <v>44</v>
       </c>
       <c r="V143" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="W143" t="s" s="2">
         <v>44</v>
@@ -19063,29 +19049,31 @@
         <v>44</v>
       </c>
       <c r="AA143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB143" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD143" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>44</v>
@@ -19103,40 +19091,38 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C144" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G144" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I144" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H144" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J144" t="s" s="2">
-        <v>580</v>
+        <v>53</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>200</v>
+        <v>595</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -19187,22 +19173,22 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>78</v>
+        <v>596</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>44</v>
+        <v>597</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>44</v>
@@ -19211,7 +19197,7 @@
         <v>44</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>44</v>
+        <v>598</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>44</v>
@@ -19219,7 +19205,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19245,10 +19231,10 @@
         <v>53</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -19272,7 +19258,7 @@
         <v>44</v>
       </c>
       <c r="V145" t="s" s="2">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="W145" t="s" s="2">
         <v>44</v>
@@ -19299,7 +19285,7 @@
         <v>44</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>408</v>
+        <v>67</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>42</v>
@@ -19331,18 +19317,18 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>596</v>
+        <v>44</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>44</v>
@@ -19351,16 +19337,16 @@
         <v>44</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>597</v>
+        <v>199</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>598</v>
+        <v>200</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -19399,34 +19385,32 @@
         <v>44</v>
       </c>
       <c r="AA146" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB146" s="2"/>
       <c r="AC146" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD146" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>599</v>
+        <v>78</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>600</v>
+        <v>44</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>44</v>
@@ -19435,7 +19419,7 @@
         <v>44</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>601</v>
+        <v>44</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>44</v>
@@ -19443,7 +19427,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19469,10 +19453,10 @@
         <v>53</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -19496,7 +19480,7 @@
         <v>44</v>
       </c>
       <c r="V147" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="W147" t="s" s="2">
         <v>44</v>
@@ -19523,7 +19507,7 @@
         <v>44</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>67</v>
+        <v>408</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -19555,18 +19539,18 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>44</v>
+        <v>603</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>44</v>
@@ -19575,16 +19559,16 @@
         <v>44</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>199</v>
+        <v>604</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>200</v>
+        <v>605</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19599,7 +19583,7 @@
         <v>44</v>
       </c>
       <c r="S148" t="s" s="2">
-        <v>44</v>
+        <v>606</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>44</v>
@@ -19623,32 +19607,34 @@
         <v>44</v>
       </c>
       <c r="AA148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB148" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC148" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD148" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>78</v>
+        <v>607</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>44</v>
+        <v>608</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>44</v>
@@ -19657,48 +19643,48 @@
         <v>44</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>44</v>
+        <v>609</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F149" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G149" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I149" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H149" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J149" t="s" s="2">
-        <v>580</v>
+        <v>53</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M149" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>44</v>
@@ -19747,22 +19733,22 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>78</v>
+        <v>614</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>44</v>
+        <v>615</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>44</v>
@@ -19771,7 +19757,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>44</v>
+        <v>616</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19779,7 +19765,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19805,10 +19791,10 @@
         <v>53</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19832,7 +19818,7 @@
         <v>44</v>
       </c>
       <c r="V150" t="s" s="2">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="W150" t="s" s="2">
         <v>44</v>
@@ -19859,7 +19845,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>408</v>
+        <v>67</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19891,18 +19877,18 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>606</v>
+        <v>44</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>44</v>
@@ -19911,16 +19897,16 @@
         <v>44</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>607</v>
+        <v>199</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>608</v>
+        <v>200</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -19935,7 +19921,7 @@
         <v>44</v>
       </c>
       <c r="S151" t="s" s="2">
-        <v>609</v>
+        <v>44</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>44</v>
@@ -19959,34 +19945,32 @@
         <v>44</v>
       </c>
       <c r="AA151" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB151" s="2"/>
       <c r="AC151" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>610</v>
+        <v>78</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>611</v>
+        <v>44</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>44</v>
@@ -19995,7 +19979,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>612</v>
+        <v>44</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -20003,7 +19987,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20011,7 +19995,7 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F152" t="s" s="2">
         <v>51</v>
@@ -20023,20 +20007,18 @@
         <v>44</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J152" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>614</v>
+        <v>405</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>616</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -20058,7 +20040,7 @@
         <v>44</v>
       </c>
       <c r="V152" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="W152" t="s" s="2">
         <v>44</v>
@@ -20085,7 +20067,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>617</v>
+        <v>408</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -20097,10 +20079,10 @@
         <v>44</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>618</v>
+        <v>44</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>44</v>
@@ -20109,7 +20091,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>619</v>
+        <v>44</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -20128,7 +20110,7 @@
         <v>42</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>44</v>
@@ -20137,19 +20119,21 @@
         <v>44</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>401</v>
+        <v>621</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>402</v>
+        <v>622</v>
       </c>
       <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
+      <c r="N153" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
       </c>
@@ -20161,7 +20145,7 @@
         <v>44</v>
       </c>
       <c r="S153" t="s" s="2">
-        <v>44</v>
+        <v>624</v>
       </c>
       <c r="T153" t="s" s="2">
         <v>44</v>
@@ -20197,7 +20181,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>67</v>
+        <v>625</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -20209,10 +20193,10 @@
         <v>44</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>44</v>
+        <v>434</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>44</v>
@@ -20221,15 +20205,15 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>44</v>
+        <v>626</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="154" hidden="true">
+    <row r="154">
       <c r="A154" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20240,10 +20224,10 @@
         <v>42</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>44</v>
@@ -20252,16 +20236,18 @@
         <v>44</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>71</v>
+        <v>273</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>199</v>
+        <v>628</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>200</v>
+        <v>629</v>
       </c>
       <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
+      <c r="N154" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="O154" t="s" s="2">
         <v>44</v>
       </c>
@@ -20285,65 +20271,65 @@
         <v>44</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>44</v>
+        <v>631</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>44</v>
+        <v>632</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB154" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC154" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD154" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>78</v>
+        <v>627</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>44</v>
+        <v>633</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>44</v>
+        <v>634</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>44</v>
+        <v>635</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
         <v>44</v>
       </c>
@@ -20355,7 +20341,7 @@
         <v>51</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H155" t="s" s="2">
         <v>44</v>
@@ -20364,13 +20350,13 @@
         <v>44</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>580</v>
+        <v>53</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>581</v>
+        <v>65</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -20421,22 +20407,22 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>44</v>
@@ -20453,18 +20439,18 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>44</v>
@@ -20476,15 +20462,17 @@
         <v>44</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>405</v>
+        <v>72</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M156" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>44</v>
@@ -20506,7 +20494,7 @@
         <v>44</v>
       </c>
       <c r="V156" t="s" s="2">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="W156" t="s" s="2">
         <v>44</v>
@@ -20521,34 +20509,34 @@
         <v>44</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AB156" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AC156" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>44</v>
@@ -20565,7 +20553,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20576,7 +20564,7 @@
         <v>42</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>44</v>
@@ -20588,17 +20576,19 @@
         <v>52</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>334</v>
+        <v>105</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>624</v>
+        <v>285</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="M157" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N157" t="s" s="2">
-        <v>626</v>
+        <v>288</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>44</v>
@@ -20611,7 +20601,7 @@
         <v>44</v>
       </c>
       <c r="S157" t="s" s="2">
-        <v>627</v>
+        <v>44</v>
       </c>
       <c r="T157" t="s" s="2">
         <v>44</v>
@@ -20647,13 +20637,13 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>628</v>
+        <v>290</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>44</v>
@@ -20662,7 +20652,7 @@
         <v>63</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>434</v>
+        <v>291</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>44</v>
@@ -20671,15 +20661,15 @@
         <v>44</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>629</v>
+        <v>292</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20693,7 +20683,7 @@
         <v>51</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>44</v>
@@ -20702,18 +20692,16 @@
         <v>44</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>631</v>
+        <v>65</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>632</v>
+        <v>66</v>
       </c>
       <c r="M158" s="2"/>
-      <c r="N158" t="s" s="2">
-        <v>633</v>
-      </c>
+      <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
         <v>44</v>
       </c>
@@ -20737,13 +20725,13 @@
         <v>44</v>
       </c>
       <c r="W158" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>634</v>
+        <v>44</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>635</v>
+        <v>44</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>44</v>
@@ -20761,7 +20749,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>630</v>
+        <v>67</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20773,19 +20761,19 @@
         <v>44</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>636</v>
+        <v>68</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>637</v>
+        <v>44</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>638</v>
+        <v>44</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20793,18 +20781,18 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>44</v>
@@ -20816,15 +20804,17 @@
         <v>44</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M159" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20861,31 +20851,31 @@
         <v>44</v>
       </c>
       <c r="AA159" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AB159" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AC159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD159" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>68</v>
@@ -20905,18 +20895,18 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>44</v>
@@ -20925,27 +20915,29 @@
         <v>44</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N160" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" t="s" s="2">
-        <v>44</v>
+        <v>632</v>
       </c>
       <c r="R160" t="s" s="2">
         <v>44</v>
@@ -20975,34 +20967,34 @@
         <v>44</v>
       </c>
       <c r="AA160" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AB160" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AC160" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD160" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>44</v>
@@ -21011,7 +21003,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -21019,7 +21011,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21030,7 +21022,7 @@
         <v>42</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>44</v>
@@ -21042,20 +21034,18 @@
         <v>52</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>286</v>
+        <v>138</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>44</v>
       </c>
@@ -21103,13 +21093,13 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>44</v>
@@ -21118,7 +21108,7 @@
         <v>63</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>291</v>
+        <v>141</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>44</v>
@@ -21127,7 +21117,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>292</v>
+        <v>142</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -21135,7 +21125,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21143,7 +21133,7 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F162" t="s" s="2">
         <v>51</v>
@@ -21155,19 +21145,21 @@
         <v>44</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
+      <c r="N162" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
       </c>
@@ -21215,7 +21207,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -21227,10 +21219,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>44</v>
@@ -21239,7 +21231,7 @@
         <v>44</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>44</v>
@@ -21247,18 +21239,18 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>44</v>
@@ -21267,21 +21259,21 @@
         <v>44</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N163" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="M163" s="2"/>
+      <c r="N163" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O163" t="s" s="2">
         <v>44</v>
       </c>
@@ -21317,34 +21309,34 @@
         <v>44</v>
       </c>
       <c r="AA163" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AB163" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AC163" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD163" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>44</v>
@@ -21353,7 +21345,7 @@
         <v>44</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>44</v>
@@ -21361,7 +21353,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21369,10 +21361,10 @@
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>44</v>
@@ -21384,26 +21376,26 @@
         <v>52</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
-        <v>635</v>
+        <v>44</v>
       </c>
       <c r="R164" t="s" s="2">
         <v>44</v>
@@ -21445,7 +21437,7 @@
         <v>44</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>42</v>
@@ -21460,7 +21452,7 @@
         <v>63</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>44</v>
@@ -21469,7 +21461,7 @@
         <v>44</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>44</v>
@@ -21477,7 +21469,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21503,15 +21495,17 @@
         <v>53</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>137</v>
+        <v>309</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>138</v>
+        <v>310</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N165" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O165" t="s" s="2">
         <v>44</v>
       </c>
@@ -21559,7 +21553,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>140</v>
+        <v>313</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21574,7 +21568,7 @@
         <v>63</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>141</v>
+        <v>314</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>44</v>
@@ -21583,7 +21577,7 @@
         <v>44</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>44</v>
@@ -21591,7 +21585,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21599,10 +21593,10 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>44</v>
@@ -21611,20 +21605,22 @@
         <v>44</v>
       </c>
       <c r="I166" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>144</v>
+        <v>648</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>145</v>
+        <v>649</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M166" s="2"/>
+        <v>650</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>651</v>
+      </c>
       <c r="N166" t="s" s="2">
-        <v>147</v>
+        <v>652</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21673,7 +21669,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>149</v>
+        <v>647</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21688,16 +21684,16 @@
         <v>63</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>150</v>
+        <v>653</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>151</v>
+        <v>654</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21705,7 +21701,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21713,10 +21709,10 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>44</v>
@@ -21725,20 +21721,22 @@
         <v>44</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>53</v>
+        <v>656</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>153</v>
+        <v>657</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M167" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="N167" t="s" s="2">
-        <v>155</v>
+        <v>660</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21787,13 +21785,13 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>157</v>
+        <v>655</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>44</v>
@@ -21802,16 +21800,16 @@
         <v>63</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>158</v>
+        <v>661</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>159</v>
+        <v>662</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21819,7 +21817,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21830,7 +21828,7 @@
         <v>42</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>44</v>
@@ -21839,22 +21837,22 @@
         <v>44</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>161</v>
+        <v>664</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>162</v>
+        <v>665</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>163</v>
+        <v>666</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>164</v>
+        <v>667</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>165</v>
+        <v>668</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>44</v>
@@ -21903,31 +21901,31 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>166</v>
+        <v>663</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>63</v>
+        <v>669</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>167</v>
+        <v>670</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21935,7 +21933,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21946,7 +21944,7 @@
         <v>42</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>44</v>
@@ -21955,23 +21953,19 @@
         <v>44</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>309</v>
+        <v>65</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
         <v>44</v>
       </c>
@@ -22019,7 +22013,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -22031,10 +22025,10 @@
         <v>44</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>44</v>
@@ -22043,7 +22037,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -22051,7 +22045,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22062,7 +22056,7 @@
         <v>42</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>44</v>
@@ -22074,20 +22068,16 @@
         <v>44</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>651</v>
+        <v>71</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>652</v>
+        <v>199</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>655</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
         <v>44</v>
       </c>
@@ -22123,53 +22113,53 @@
         <v>44</v>
       </c>
       <c r="AA170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB170" s="2"/>
       <c r="AC170" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>650</v>
+        <v>78</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>656</v>
+        <v>44</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>657</v>
+        <v>44</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="B171" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>673</v>
+      </c>
       <c r="C171" t="s" s="2">
         <v>44</v>
       </c>
@@ -22178,10 +22168,10 @@
         <v>42</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>44</v>
@@ -22190,20 +22180,16 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>663</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
         <v>44</v>
       </c>
@@ -22251,7 +22237,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>658</v>
+        <v>78</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -22260,22 +22246,22 @@
         <v>43</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>664</v>
+        <v>44</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>665</v>
+        <v>44</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -22283,11 +22269,11 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>44</v>
+        <v>678</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22300,25 +22286,25 @@
         <v>44</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>667</v>
+        <v>71</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>670</v>
+        <v>74</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>671</v>
+        <v>245</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>44</v>
@@ -22367,7 +22353,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -22379,13 +22365,13 @@
         <v>44</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>672</v>
+        <v>79</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>673</v>
+        <v>197</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>44</v>
@@ -22399,7 +22385,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22422,16 +22408,18 @@
         <v>44</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>65</v>
+        <v>683</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>66</v>
+        <v>684</v>
       </c>
       <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
+      <c r="N173" t="s" s="2">
+        <v>685</v>
+      </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
       </c>
@@ -22455,13 +22443,13 @@
         <v>44</v>
       </c>
       <c r="W173" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>44</v>
+        <v>686</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>44</v>
+        <v>687</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>44</v>
@@ -22479,31 +22467,31 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>67</v>
+        <v>682</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ173" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AK173" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="AK173" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL173" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>44</v>
+        <v>689</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>44</v>
@@ -22511,7 +22499,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22522,7 +22510,7 @@
         <v>42</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>44</v>
@@ -22534,13 +22522,13 @@
         <v>44</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -22579,32 +22567,34 @@
         <v>44</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB174" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC174" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>44</v>
@@ -22619,15 +22609,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>676</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -22637,7 +22625,7 @@
         <v>43</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H175" t="s" s="2">
         <v>44</v>
@@ -22646,15 +22634,17 @@
         <v>44</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>677</v>
+        <v>71</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>678</v>
+        <v>72</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="M175" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
         <v>44</v>
@@ -22691,16 +22681,16 @@
         <v>44</v>
       </c>
       <c r="AA175" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AB175" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AC175" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD175" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE175" t="s" s="2">
         <v>78</v>
@@ -22712,13 +22702,13 @@
         <v>43</v>
       </c>
       <c r="AH175" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="AI175" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>44</v>
@@ -22735,42 +22725,42 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>681</v>
+        <v>44</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H176" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I176" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>682</v>
+        <v>285</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>683</v>
+        <v>286</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>44</v>
@@ -22819,7 +22809,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>684</v>
+        <v>290</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22831,10 +22821,10 @@
         <v>44</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>44</v>
@@ -22843,7 +22833,7 @@
         <v>44</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>44</v>
@@ -22851,7 +22841,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22874,18 +22864,16 @@
         <v>44</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>686</v>
+        <v>65</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>687</v>
+        <v>66</v>
       </c>
       <c r="M177" s="2"/>
-      <c r="N177" t="s" s="2">
-        <v>688</v>
-      </c>
+      <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
         <v>44</v>
       </c>
@@ -22909,13 +22897,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>689</v>
+        <v>44</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>690</v>
+        <v>44</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22933,31 +22921,31 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>685</v>
+        <v>67</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>691</v>
+        <v>68</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>692</v>
+        <v>44</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22965,18 +22953,18 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>44</v>
@@ -22988,15 +22976,17 @@
         <v>44</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M178" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -23033,31 +23023,31 @@
         <v>44</v>
       </c>
       <c r="AA178" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AB178" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AC178" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD178" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>68</v>
@@ -23077,18 +23067,18 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F179" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G179" t="s" s="2">
         <v>44</v>
@@ -23097,27 +23087,29 @@
         <v>44</v>
       </c>
       <c r="I179" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N179" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P179" s="2"/>
       <c r="Q179" t="s" s="2">
-        <v>44</v>
+        <v>696</v>
       </c>
       <c r="R179" t="s" s="2">
         <v>44</v>
@@ -23147,34 +23139,34 @@
         <v>44</v>
       </c>
       <c r="AA179" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AB179" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AC179" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD179" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>44</v>
@@ -23183,7 +23175,7 @@
         <v>44</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>44</v>
@@ -23191,7 +23183,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23202,7 +23194,7 @@
         <v>42</v>
       </c>
       <c r="F180" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s" s="2">
         <v>44</v>
@@ -23214,20 +23206,18 @@
         <v>52</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>286</v>
+        <v>138</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
         <v>44</v>
       </c>
@@ -23275,13 +23265,13 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>44</v>
@@ -23290,7 +23280,7 @@
         <v>63</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>291</v>
+        <v>141</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>44</v>
@@ -23299,7 +23289,7 @@
         <v>44</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>292</v>
+        <v>142</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>44</v>
@@ -23307,7 +23297,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23327,25 +23317,27 @@
         <v>44</v>
       </c>
       <c r="I181" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
+      <c r="N181" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O181" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P181" s="2"/>
       <c r="Q181" t="s" s="2">
-        <v>44</v>
+        <v>699</v>
       </c>
       <c r="R181" t="s" s="2">
         <v>44</v>
@@ -23387,7 +23379,7 @@
         <v>44</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>42</v>
@@ -23399,10 +23391,10 @@
         <v>44</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="AK181" t="s" s="2">
         <v>44</v>
@@ -23411,7 +23403,7 @@
         <v>44</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>44</v>
@@ -23419,18 +23411,18 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>44</v>
@@ -23439,27 +23431,27 @@
         <v>44</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N182" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="M182" s="2"/>
+      <c r="N182" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O182" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P182" s="2"/>
       <c r="Q182" t="s" s="2">
-        <v>44</v>
+        <v>701</v>
       </c>
       <c r="R182" t="s" s="2">
         <v>44</v>
@@ -23489,34 +23481,34 @@
         <v>44</v>
       </c>
       <c r="AA182" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AB182" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AC182" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD182" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="AK182" t="s" s="2">
         <v>44</v>
@@ -23525,7 +23517,7 @@
         <v>44</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="AN182" t="s" s="2">
         <v>44</v>
@@ -23533,7 +23525,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23541,10 +23533,10 @@
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>44</v>
@@ -23556,26 +23548,26 @@
         <v>52</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P183" s="2"/>
       <c r="Q183" t="s" s="2">
-        <v>699</v>
+        <v>44</v>
       </c>
       <c r="R183" t="s" s="2">
         <v>44</v>
@@ -23617,7 +23609,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23632,7 +23624,7 @@
         <v>63</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="AK183" t="s" s="2">
         <v>44</v>
@@ -23641,7 +23633,7 @@
         <v>44</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>44</v>
@@ -23649,7 +23641,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23675,15 +23667,17 @@
         <v>53</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>137</v>
+        <v>309</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>138</v>
+        <v>310</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N184" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
       </c>
@@ -23731,7 +23725,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>140</v>
+        <v>313</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>42</v>
@@ -23746,7 +23740,7 @@
         <v>63</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>141</v>
+        <v>314</v>
       </c>
       <c r="AK184" t="s" s="2">
         <v>44</v>
@@ -23755,7 +23749,7 @@
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23763,7 +23757,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23771,7 +23765,7 @@
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F185" t="s" s="2">
         <v>51</v>
@@ -23783,27 +23777,27 @@
         <v>44</v>
       </c>
       <c r="I185" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>144</v>
+        <v>362</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>145</v>
+        <v>705</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>146</v>
+        <v>706</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>147</v>
+        <v>707</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P185" s="2"/>
       <c r="Q185" t="s" s="2">
-        <v>702</v>
+        <v>44</v>
       </c>
       <c r="R185" t="s" s="2">
         <v>44</v>
@@ -23845,7 +23839,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>149</v>
+        <v>704</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23860,16 +23854,16 @@
         <v>63</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>150</v>
+        <v>368</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>151</v>
+        <v>708</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23877,7 +23871,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23897,27 +23891,25 @@
         <v>44</v>
       </c>
       <c r="I186" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="M186" s="2"/>
-      <c r="N186" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P186" s="2"/>
       <c r="Q186" t="s" s="2">
-        <v>704</v>
+        <v>44</v>
       </c>
       <c r="R186" t="s" s="2">
         <v>44</v>
@@ -23959,7 +23951,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23971,10 +23963,10 @@
         <v>44</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>44</v>
@@ -23983,7 +23975,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23991,18 +23983,18 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>44</v>
@@ -24011,23 +24003,21 @@
         <v>44</v>
       </c>
       <c r="I187" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
         <v>44</v>
       </c>
@@ -24063,34 +24053,34 @@
         <v>44</v>
       </c>
       <c r="AA187" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AB187" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AC187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD187" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="AK187" t="s" s="2">
         <v>44</v>
@@ -24099,7 +24089,7 @@
         <v>44</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>44</v>
@@ -24107,7 +24097,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24115,41 +24105,41 @@
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F188" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H188" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I188" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P188" s="2"/>
       <c r="Q188" t="s" s="2">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="R188" t="s" s="2">
         <v>44</v>
@@ -24167,13 +24157,13 @@
         <v>44</v>
       </c>
       <c r="W188" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>44</v>
@@ -24191,7 +24181,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -24206,7 +24196,7 @@
         <v>63</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>44</v>
@@ -24215,7 +24205,7 @@
         <v>44</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>315</v>
+        <v>383</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>44</v>
@@ -24223,7 +24213,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24231,10 +24221,10 @@
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F189" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>44</v>
@@ -24243,20 +24233,22 @@
         <v>44</v>
       </c>
       <c r="I189" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>362</v>
+        <v>53</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>708</v>
+        <v>385</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="M189" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="N189" t="s" s="2">
-        <v>710</v>
+        <v>388</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>44</v>
@@ -24305,7 +24297,7 @@
         <v>44</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>707</v>
+        <v>389</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>42</v>
@@ -24320,16 +24312,16 @@
         <v>63</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AL189" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>711</v>
+        <v>391</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>44</v>
@@ -24337,15 +24329,15 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F190" t="s" s="2">
         <v>51</v>
@@ -24357,18 +24349,20 @@
         <v>44</v>
       </c>
       <c r="I190" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J190" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>65</v>
+        <v>394</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M190" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
         <v>44</v>
@@ -24417,7 +24411,7 @@
         <v>44</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>67</v>
+        <v>397</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>42</v>
@@ -24429,10 +24423,10 @@
         <v>44</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>68</v>
+        <v>398</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>44</v>
@@ -24441,7 +24435,7 @@
         <v>44</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>44</v>
+        <v>399</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>44</v>
@@ -24449,15 +24443,15 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>70</v>
+        <v>410</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F191" t="s" s="2">
         <v>43</v>
@@ -24469,19 +24463,19 @@
         <v>44</v>
       </c>
       <c r="I191" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>72</v>
+        <v>411</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>73</v>
+        <v>412</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" t="s" s="2">
@@ -24519,19 +24513,19 @@
         <v>44</v>
       </c>
       <c r="AA191" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AB191" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AC191" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD191" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24543,10 +24537,10 @@
         <v>44</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>68</v>
+        <v>415</v>
       </c>
       <c r="AK191" t="s" s="2">
         <v>44</v>
@@ -24555,7 +24549,7 @@
         <v>44</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>44</v>
+        <v>416</v>
       </c>
       <c r="AN191" t="s" s="2">
         <v>44</v>
@@ -24563,7 +24557,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24571,41 +24565,37 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F192" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H192" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I192" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>266</v>
+        <v>418</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="R192" t="s" s="2">
         <v>44</v>
@@ -24623,13 +24613,13 @@
         <v>44</v>
       </c>
       <c r="W192" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>380</v>
+        <v>44</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>44</v>
@@ -24647,13 +24637,13 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>44</v>
@@ -24662,7 +24652,7 @@
         <v>63</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="AK192" t="s" s="2">
         <v>44</v>
@@ -24671,7 +24661,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24679,7 +24669,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24705,17 +24695,13 @@
         <v>53</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
         <v>44</v>
       </c>
@@ -24763,13 +24749,13 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>44</v>
@@ -24778,7 +24764,7 @@
         <v>63</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>44</v>
@@ -24787,7 +24773,7 @@
         <v>44</v>
       </c>
       <c r="AM193" t="s" s="2">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="AN193" t="s" s="2">
         <v>44</v>
@@ -24795,18 +24781,18 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F194" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G194" t="s" s="2">
         <v>44</v>
@@ -24818,18 +24804,18 @@
         <v>52</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N194" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M194" s="2"/>
+      <c r="N194" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O194" t="s" s="2">
         <v>44</v>
       </c>
@@ -24877,7 +24863,7 @@
         <v>44</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>42</v>
@@ -24892,7 +24878,7 @@
         <v>63</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="AK194" t="s" s="2">
         <v>44</v>
@@ -24901,7 +24887,7 @@
         <v>44</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>44</v>
@@ -24909,18 +24895,18 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
         <v>51</v>
       </c>
       <c r="F195" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>44</v>
@@ -24929,21 +24915,23 @@
         <v>44</v>
       </c>
       <c r="I195" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>53</v>
+        <v>439</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>411</v>
+        <v>719</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>412</v>
+        <v>720</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N195" s="2"/>
+        <v>721</v>
+      </c>
+      <c r="N195" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O195" t="s" s="2">
         <v>44</v>
       </c>
@@ -24991,7 +24979,7 @@
         <v>44</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>414</v>
+        <v>718</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>42</v>
@@ -25006,16 +24994,16 @@
         <v>63</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>416</v>
+        <v>722</v>
       </c>
       <c r="AN195" t="s" s="2">
         <v>44</v>
@@ -25023,7 +25011,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25034,7 +25022,7 @@
         <v>42</v>
       </c>
       <c r="F196" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G196" t="s" s="2">
         <v>44</v>
@@ -25043,16 +25031,16 @@
         <v>44</v>
       </c>
       <c r="I196" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J196" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>418</v>
+        <v>65</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>419</v>
+        <v>66</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -25103,22 +25091,22 @@
         <v>44</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>420</v>
+        <v>67</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>421</v>
+        <v>68</v>
       </c>
       <c r="AK196" t="s" s="2">
         <v>44</v>
@@ -25127,7 +25115,7 @@
         <v>44</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="AN196" t="s" s="2">
         <v>44</v>
@@ -25135,18 +25123,18 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F197" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s" s="2">
         <v>44</v>
@@ -25155,18 +25143,20 @@
         <v>44</v>
       </c>
       <c r="I197" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>424</v>
+        <v>72</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M197" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
         <v>44</v>
@@ -25203,19 +25193,19 @@
         <v>44</v>
       </c>
       <c r="AA197" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AB197" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AC197" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD197" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>42</v>
@@ -25227,10 +25217,10 @@
         <v>44</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>427</v>
+        <v>68</v>
       </c>
       <c r="AK197" t="s" s="2">
         <v>44</v>
@@ -25239,7 +25229,7 @@
         <v>44</v>
       </c>
       <c r="AM197" t="s" s="2">
-        <v>428</v>
+        <v>44</v>
       </c>
       <c r="AN197" t="s" s="2">
         <v>44</v>
@@ -25247,7 +25237,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25255,10 +25245,10 @@
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F198" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>44</v>
@@ -25270,24 +25260,22 @@
         <v>52</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>334</v>
+        <v>144</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="M198" s="2"/>
-      <c r="N198" t="s" s="2">
-        <v>432</v>
-      </c>
+      <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
-        <v>44</v>
+        <v>454</v>
       </c>
       <c r="R198" t="s" s="2">
         <v>44</v>
@@ -25305,13 +25293,13 @@
         <v>44</v>
       </c>
       <c r="W198" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="X198" t="s" s="2">
-        <v>44</v>
+        <v>455</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>44</v>
+        <v>456</v>
       </c>
       <c r="Z198" t="s" s="2">
         <v>44</v>
@@ -25329,7 +25317,7 @@
         <v>44</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>42</v>
@@ -25338,13 +25326,13 @@
         <v>51</v>
       </c>
       <c r="AH198" t="s" s="2">
-        <v>44</v>
+        <v>458</v>
       </c>
       <c r="AI198" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>44</v>
@@ -25353,7 +25341,7 @@
         <v>44</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="AN198" t="s" s="2">
         <v>44</v>
@@ -25361,7 +25349,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25381,22 +25369,22 @@
         <v>44</v>
       </c>
       <c r="I199" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>439</v>
+        <v>53</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>723</v>
+        <v>463</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>724</v>
+        <v>464</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>44</v>
@@ -25445,13 +25433,13 @@
         <v>44</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>721</v>
+        <v>466</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>44</v>
@@ -25460,16 +25448,16 @@
         <v>63</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>725</v>
+        <v>468</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>44</v>
@@ -25477,7 +25465,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25485,7 +25473,7 @@
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F200" t="s" s="2">
         <v>51</v>
@@ -25494,28 +25482,32 @@
         <v>44</v>
       </c>
       <c r="H200" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I200" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>65</v>
+        <v>474</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N200" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O200" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" t="s" s="2">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="R200" t="s" s="2">
         <v>44</v>
@@ -25533,13 +25525,13 @@
         <v>44</v>
       </c>
       <c r="W200" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>44</v>
+        <v>475</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>44</v>
+        <v>476</v>
       </c>
       <c r="Z200" t="s" s="2">
         <v>44</v>
@@ -25557,7 +25549,7 @@
         <v>44</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>67</v>
+        <v>477</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>42</v>
@@ -25569,10 +25561,10 @@
         <v>44</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>68</v>
+        <v>382</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>44</v>
@@ -25581,7 +25573,7 @@
         <v>44</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>44</v>
+        <v>478</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>44</v>
@@ -25589,18 +25581,18 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F201" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s" s="2">
         <v>44</v>
@@ -25609,19 +25601,19 @@
         <v>44</v>
       </c>
       <c r="I201" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>71</v>
+        <v>480</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>72</v>
+        <v>481</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>73</v>
+        <v>482</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" t="s" s="2">
@@ -25659,31 +25651,31 @@
         <v>44</v>
       </c>
       <c r="AA201" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AB201" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AC201" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD201" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>68</v>
@@ -25695,7 +25687,7 @@
         <v>44</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>44</v>
@@ -25703,7 +25695,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25711,10 +25703,10 @@
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F202" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G202" t="s" s="2">
         <v>44</v>
@@ -25726,13 +25718,13 @@
         <v>52</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
@@ -25741,7 +25733,7 @@
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
-        <v>454</v>
+        <v>44</v>
       </c>
       <c r="R202" t="s" s="2">
         <v>44</v>
@@ -25759,13 +25751,13 @@
         <v>44</v>
       </c>
       <c r="W202" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>455</v>
+        <v>44</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>44</v>
@@ -25783,7 +25775,7 @@
         <v>44</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>42</v>
@@ -25792,13 +25784,13 @@
         <v>51</v>
       </c>
       <c r="AH202" t="s" s="2">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AI202" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="AK202" t="s" s="2">
         <v>44</v>
@@ -25807,7 +25799,7 @@
         <v>44</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>460</v>
+        <v>197</v>
       </c>
       <c r="AN202" t="s" s="2">
         <v>44</v>
@@ -25815,7 +25807,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25835,22 +25827,20 @@
         <v>44</v>
       </c>
       <c r="I203" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>53</v>
+        <v>528</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="M203" s="2"/>
       <c r="N203" t="s" s="2">
-        <v>465</v>
+        <v>734</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>44</v>
@@ -25899,7 +25889,7 @@
         <v>44</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>466</v>
+        <v>731</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>42</v>
@@ -25914,16 +25904,16 @@
         <v>63</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AL203" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>468</v>
+        <v>735</v>
       </c>
       <c r="AN203" t="s" s="2">
         <v>44</v>
@@ -25931,7 +25921,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25939,7 +25929,7 @@
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F204" t="s" s="2">
         <v>51</v>
@@ -25948,32 +25938,28 @@
         <v>44</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I204" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>474</v>
+        <v>65</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
       <c r="O204" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
-        <v>474</v>
+        <v>44</v>
       </c>
       <c r="R204" t="s" s="2">
         <v>44</v>
@@ -25991,13 +25977,13 @@
         <v>44</v>
       </c>
       <c r="W204" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>475</v>
+        <v>44</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>476</v>
+        <v>44</v>
       </c>
       <c r="Z204" t="s" s="2">
         <v>44</v>
@@ -26015,7 +26001,7 @@
         <v>44</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>477</v>
+        <v>67</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>42</v>
@@ -26027,10 +26013,10 @@
         <v>44</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>382</v>
+        <v>68</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>44</v>
@@ -26039,7 +26025,7 @@
         <v>44</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>478</v>
+        <v>44</v>
       </c>
       <c r="AN204" t="s" s="2">
         <v>44</v>
@@ -26047,18 +26033,18 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F205" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G205" t="s" s="2">
         <v>44</v>
@@ -26067,19 +26053,19 @@
         <v>44</v>
       </c>
       <c r="I205" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>480</v>
+        <v>71</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>481</v>
+        <v>72</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>482</v>
+        <v>73</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>483</v>
+        <v>74</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
@@ -26117,31 +26103,31 @@
         <v>44</v>
       </c>
       <c r="AA205" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AB205" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AC205" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD205" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>484</v>
+        <v>78</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ205" t="s" s="2">
         <v>68</v>
@@ -26153,7 +26139,7 @@
         <v>44</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>44</v>
@@ -26161,7 +26147,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26169,43 +26155,47 @@
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F206" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G206" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>334</v>
+        <v>144</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="O206" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="R206" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S206" t="s" s="2">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="T206" t="s" s="2">
         <v>44</v>
@@ -26217,13 +26207,13 @@
         <v>44</v>
       </c>
       <c r="W206" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="X206" t="s" s="2">
-        <v>44</v>
+        <v>542</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>44</v>
+        <v>543</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>44</v>
@@ -26241,7 +26231,7 @@
         <v>44</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>42</v>
@@ -26256,7 +26246,7 @@
         <v>63</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>44</v>
@@ -26265,7 +26255,7 @@
         <v>44</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>197</v>
+        <v>545</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>44</v>
@@ -26273,7 +26263,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26281,10 +26271,10 @@
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F207" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>44</v>
@@ -26293,21 +26283,21 @@
         <v>44</v>
       </c>
       <c r="I207" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>528</v>
+        <v>144</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>735</v>
+        <v>547</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="M207" s="2"/>
-      <c r="N207" t="s" s="2">
-        <v>737</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N207" s="2"/>
       <c r="O207" t="s" s="2">
         <v>44</v>
       </c>
@@ -26319,7 +26309,7 @@
         <v>44</v>
       </c>
       <c r="S207" t="s" s="2">
-        <v>44</v>
+        <v>550</v>
       </c>
       <c r="T207" t="s" s="2">
         <v>44</v>
@@ -26331,13 +26321,13 @@
         <v>44</v>
       </c>
       <c r="W207" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>44</v>
+        <v>551</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>44</v>
+        <v>552</v>
       </c>
       <c r="Z207" t="s" s="2">
         <v>44</v>
@@ -26355,7 +26345,7 @@
         <v>44</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>734</v>
+        <v>553</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>42</v>
@@ -26370,16 +26360,16 @@
         <v>63</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>533</v>
+        <v>382</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AL207" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>738</v>
+        <v>554</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>44</v>
@@ -26387,7 +26377,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26395,7 +26385,7 @@
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F208" t="s" s="2">
         <v>51</v>
@@ -26407,19 +26397,23 @@
         <v>44</v>
       </c>
       <c r="I208" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J208" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>65</v>
+        <v>556</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M208" s="2"/>
-      <c r="N208" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="M208" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N208" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O208" t="s" s="2">
         <v>44</v>
       </c>
@@ -26431,7 +26425,7 @@
         <v>44</v>
       </c>
       <c r="S208" t="s" s="2">
-        <v>44</v>
+        <v>559</v>
       </c>
       <c r="T208" t="s" s="2">
         <v>44</v>
@@ -26467,7 +26461,7 @@
         <v>44</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>67</v>
+        <v>560</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>42</v>
@@ -26479,10 +26473,10 @@
         <v>44</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>68</v>
+        <v>390</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>44</v>
@@ -26491,7 +26485,7 @@
         <v>44</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>44</v>
+        <v>561</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>44</v>
@@ -26499,18 +26493,18 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>44</v>
@@ -26519,20 +26513,18 @@
         <v>44</v>
       </c>
       <c r="I209" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>72</v>
+        <v>563</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="M209" s="2"/>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
         <v>44</v>
@@ -26545,7 +26537,7 @@
         <v>44</v>
       </c>
       <c r="S209" t="s" s="2">
-        <v>44</v>
+        <v>565</v>
       </c>
       <c r="T209" t="s" s="2">
         <v>44</v>
@@ -26569,19 +26561,19 @@
         <v>44</v>
       </c>
       <c r="AA209" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AB209" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AC209" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD209" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>78</v>
+        <v>566</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>42</v>
@@ -26593,10 +26585,10 @@
         <v>44</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>68</v>
+        <v>567</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>44</v>
@@ -26605,7 +26597,7 @@
         <v>44</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>44</v>
+        <v>568</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>44</v>
@@ -26613,11 +26605,11 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
-        <v>44</v>
+        <v>570</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26630,38 +26622,34 @@
         <v>44</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>474</v>
+        <v>571</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
-        <v>474</v>
+        <v>44</v>
       </c>
       <c r="R210" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S210" t="s" s="2">
-        <v>474</v>
+        <v>573</v>
       </c>
       <c r="T210" t="s" s="2">
         <v>44</v>
@@ -26673,13 +26661,13 @@
         <v>44</v>
       </c>
       <c r="W210" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>542</v>
+        <v>44</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>543</v>
+        <v>44</v>
       </c>
       <c r="Z210" t="s" s="2">
         <v>44</v>
@@ -26697,7 +26685,7 @@
         <v>44</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>544</v>
+        <v>574</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>42</v>
@@ -26712,7 +26700,7 @@
         <v>63</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>382</v>
+        <v>575</v>
       </c>
       <c r="AK210" t="s" s="2">
         <v>44</v>
@@ -26721,7 +26709,7 @@
         <v>44</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>44</v>
@@ -26729,18 +26717,18 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
-        <v>44</v>
+        <v>581</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F211" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G211" t="s" s="2">
         <v>44</v>
@@ -26752,16 +26740,16 @@
         <v>52</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
@@ -26775,7 +26763,7 @@
         <v>44</v>
       </c>
       <c r="S211" t="s" s="2">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="T211" t="s" s="2">
         <v>44</v>
@@ -26787,13 +26775,13 @@
         <v>44</v>
       </c>
       <c r="W211" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>551</v>
+        <v>44</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>552</v>
+        <v>44</v>
       </c>
       <c r="Z211" t="s" s="2">
         <v>44</v>
@@ -26811,7 +26799,7 @@
         <v>44</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>42</v>
@@ -26826,7 +26814,7 @@
         <v>63</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>382</v>
+        <v>587</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>44</v>
@@ -26835,7 +26823,7 @@
         <v>44</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="AN211" t="s" s="2">
         <v>44</v>
@@ -26843,11 +26831,11 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
-        <v>44</v>
+        <v>593</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -26869,17 +26857,13 @@
         <v>53</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
       <c r="O212" t="s" s="2">
         <v>44</v>
       </c>
@@ -26891,7 +26875,7 @@
         <v>44</v>
       </c>
       <c r="S212" t="s" s="2">
-        <v>559</v>
+        <v>44</v>
       </c>
       <c r="T212" t="s" s="2">
         <v>44</v>
@@ -26927,7 +26911,7 @@
         <v>44</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>42</v>
@@ -26942,7 +26926,7 @@
         <v>63</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>390</v>
+        <v>597</v>
       </c>
       <c r="AK212" t="s" s="2">
         <v>44</v>
@@ -26951,7 +26935,7 @@
         <v>44</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="AN212" t="s" s="2">
         <v>44</v>
@@ -26959,11 +26943,11 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
-        <v>44</v>
+        <v>603</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -26985,10 +26969,10 @@
         <v>53</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>563</v>
+        <v>604</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>564</v>
+        <v>605</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
@@ -27003,7 +26987,7 @@
         <v>44</v>
       </c>
       <c r="S213" t="s" s="2">
-        <v>565</v>
+        <v>606</v>
       </c>
       <c r="T213" t="s" s="2">
         <v>44</v>
@@ -27039,13 +27023,13 @@
         <v>44</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>44</v>
@@ -27054,7 +27038,7 @@
         <v>63</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>567</v>
+        <v>608</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>44</v>
@@ -27063,7 +27047,7 @@
         <v>44</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>568</v>
+        <v>609</v>
       </c>
       <c r="AN213" t="s" s="2">
         <v>44</v>
@@ -27071,11 +27055,11 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
-        <v>570</v>
+        <v>44</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -27097,12 +27081,14 @@
         <v>53</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M214" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="N214" s="2"/>
       <c r="O214" t="s" s="2">
         <v>44</v>
@@ -27115,7 +27101,7 @@
         <v>44</v>
       </c>
       <c r="S214" t="s" s="2">
-        <v>573</v>
+        <v>44</v>
       </c>
       <c r="T214" t="s" s="2">
         <v>44</v>
@@ -27151,7 +27137,7 @@
         <v>44</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>42</v>
@@ -27166,7 +27152,7 @@
         <v>63</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>44</v>
@@ -27175,7 +27161,7 @@
         <v>44</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="AN214" t="s" s="2">
         <v>44</v>
@@ -27183,18 +27169,18 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
-        <v>584</v>
+        <v>44</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F215" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>44</v>
@@ -27206,18 +27192,18 @@
         <v>52</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>585</v>
+        <v>621</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M215" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N215" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="M215" s="2"/>
+      <c r="N215" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="O215" t="s" s="2">
         <v>44</v>
       </c>
@@ -27229,7 +27215,7 @@
         <v>44</v>
       </c>
       <c r="S215" t="s" s="2">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="T215" t="s" s="2">
         <v>44</v>
@@ -27265,7 +27251,7 @@
         <v>44</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>42</v>
@@ -27280,7 +27266,7 @@
         <v>63</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>590</v>
+        <v>434</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>44</v>
@@ -27289,7 +27275,7 @@
         <v>44</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>591</v>
+        <v>626</v>
       </c>
       <c r="AN215" t="s" s="2">
         <v>44</v>
@@ -27297,11 +27283,11 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
-        <v>596</v>
+        <v>44</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -27317,19 +27303,21 @@
         <v>44</v>
       </c>
       <c r="I216" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>597</v>
+        <v>500</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>598</v>
+        <v>749</v>
       </c>
       <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
+      <c r="N216" t="s" s="2">
+        <v>750</v>
+      </c>
       <c r="O216" t="s" s="2">
         <v>44</v>
       </c>
@@ -27353,13 +27341,13 @@
         <v>44</v>
       </c>
       <c r="W216" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>44</v>
+        <v>504</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>44</v>
+        <v>505</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>44</v>
@@ -27377,7 +27365,7 @@
         <v>44</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>599</v>
+        <v>748</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>42</v>
@@ -27392,16 +27380,16 @@
         <v>63</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>600</v>
+        <v>506</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AL216" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>601</v>
+        <v>751</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>44</v>
@@ -27409,11 +27397,11 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
-        <v>606</v>
+        <v>44</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27429,19 +27417,21 @@
         <v>44</v>
       </c>
       <c r="I217" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>53</v>
+        <v>341</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>607</v>
+        <v>753</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>608</v>
+        <v>754</v>
       </c>
       <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
+      <c r="N217" t="s" s="2">
+        <v>755</v>
+      </c>
       <c r="O217" t="s" s="2">
         <v>44</v>
       </c>
@@ -27453,7 +27443,7 @@
         <v>44</v>
       </c>
       <c r="S217" t="s" s="2">
-        <v>609</v>
+        <v>44</v>
       </c>
       <c r="T217" t="s" s="2">
         <v>44</v>
@@ -27489,7 +27479,7 @@
         <v>44</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>610</v>
+        <v>752</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>42</v>
@@ -27498,22 +27488,22 @@
         <v>51</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>44</v>
+        <v>756</v>
       </c>
       <c r="AI217" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>611</v>
+        <v>757</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AL217" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>612</v>
+        <v>758</v>
       </c>
       <c r="AN217" t="s" s="2">
         <v>44</v>
@@ -27521,7 +27511,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27529,10 +27519,10 @@
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F218" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G218" t="s" s="2">
         <v>44</v>
@@ -27541,20 +27531,18 @@
         <v>44</v>
       </c>
       <c r="I218" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>614</v>
+        <v>760</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>616</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="M218" s="2"/>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
         <v>44</v>
@@ -27603,7 +27591,7 @@
         <v>44</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>617</v>
+        <v>759</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>42</v>
@@ -27618,16 +27606,16 @@
         <v>63</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>618</v>
+        <v>762</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AL218" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>619</v>
+        <v>44</v>
       </c>
       <c r="AN218" t="s" s="2">
         <v>44</v>
@@ -27635,7 +27623,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27655,20 +27643,22 @@
         <v>44</v>
       </c>
       <c r="I219" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>334</v>
+        <v>664</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>624</v>
+        <v>764</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="M219" s="2"/>
+        <v>765</v>
+      </c>
+      <c r="M219" t="s" s="2">
+        <v>766</v>
+      </c>
       <c r="N219" t="s" s="2">
-        <v>626</v>
+        <v>767</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>44</v>
@@ -27681,7 +27671,7 @@
         <v>44</v>
       </c>
       <c r="S219" t="s" s="2">
-        <v>627</v>
+        <v>44</v>
       </c>
       <c r="T219" t="s" s="2">
         <v>44</v>
@@ -27717,13 +27707,13 @@
         <v>44</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>628</v>
+        <v>763</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>44</v>
@@ -27732,16 +27722,16 @@
         <v>63</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>434</v>
+        <v>768</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>44</v>
+        <v>769</v>
       </c>
       <c r="AL219" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>629</v>
+        <v>44</v>
       </c>
       <c r="AN219" t="s" s="2">
         <v>44</v>
@@ -27749,7 +27739,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27757,7 +27747,7 @@
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F220" t="s" s="2">
         <v>51</v>
@@ -27772,18 +27762,16 @@
         <v>44</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>752</v>
+        <v>66</v>
       </c>
       <c r="M220" s="2"/>
-      <c r="N220" t="s" s="2">
-        <v>753</v>
-      </c>
+      <c r="N220" s="2"/>
       <c r="O220" t="s" s="2">
         <v>44</v>
       </c>
@@ -27807,13 +27795,13 @@
         <v>44</v>
       </c>
       <c r="W220" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>504</v>
+        <v>44</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>505</v>
+        <v>44</v>
       </c>
       <c r="Z220" t="s" s="2">
         <v>44</v>
@@ -27831,7 +27819,7 @@
         <v>44</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>751</v>
+        <v>67</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>42</v>
@@ -27843,19 +27831,19 @@
         <v>44</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>506</v>
+        <v>68</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AL220" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>754</v>
+        <v>44</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>44</v>
@@ -27863,18 +27851,18 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F221" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s" s="2">
         <v>44</v>
@@ -27886,18 +27874,18 @@
         <v>44</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>341</v>
+        <v>71</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>756</v>
+        <v>72</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="M221" s="2"/>
-      <c r="N221" t="s" s="2">
-        <v>758</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="M221" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
         <v>44</v>
       </c>
@@ -27945,31 +27933,31 @@
         <v>44</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>755</v>
+        <v>78</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH221" t="s" s="2">
-        <v>759</v>
+        <v>44</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>760</v>
+        <v>68</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AL221" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>761</v>
+        <v>44</v>
       </c>
       <c r="AN221" t="s" s="2">
         <v>44</v>
@@ -27977,39 +27965,43 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
-        <v>44</v>
+        <v>678</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F222" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I222" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>334</v>
+        <v>71</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>763</v>
+        <v>679</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
+        <v>680</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N222" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O222" t="s" s="2">
         <v>44</v>
       </c>
@@ -28057,25 +28049,25 @@
         <v>44</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>762</v>
+        <v>681</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>765</v>
+        <v>197</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AL222" t="s" s="2">
         <v>44</v>
@@ -28089,7 +28081,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28097,10 +28089,10 @@
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F223" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G223" t="s" s="2">
         <v>44</v>
@@ -28112,19 +28104,19 @@
         <v>44</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>667</v>
+        <v>273</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>44</v>
@@ -28149,13 +28141,13 @@
         <v>44</v>
       </c>
       <c r="W223" t="s" s="2">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="X223" t="s" s="2">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="Y223" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="Z223" t="s" s="2">
         <v>44</v>
@@ -28173,13 +28165,13 @@
         <v>44</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>44</v>
@@ -28188,16 +28180,16 @@
         <v>63</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="AL223" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM223" t="s" s="2">
-        <v>44</v>
+        <v>780</v>
       </c>
       <c r="AN223" t="s" s="2">
         <v>44</v>
@@ -28205,7 +28197,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28228,16 +28220,20 @@
         <v>44</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>65</v>
+        <v>782</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
+        <v>783</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>785</v>
+      </c>
       <c r="O224" t="s" s="2">
         <v>44</v>
       </c>
@@ -28285,7 +28281,7 @@
         <v>44</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>67</v>
+        <v>781</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>42</v>
@@ -28297,19 +28293,19 @@
         <v>44</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>68</v>
+        <v>786</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>44</v>
+        <v>787</v>
       </c>
       <c r="AL224" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>44</v>
+        <v>788</v>
       </c>
       <c r="AN224" t="s" s="2">
         <v>44</v>
@@ -28317,18 +28313,18 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
-        <v>70</v>
+        <v>790</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F225" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G225" t="s" s="2">
         <v>44</v>
@@ -28340,16 +28336,16 @@
         <v>44</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>71</v>
+        <v>791</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>72</v>
+        <v>792</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>73</v>
+        <v>793</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>74</v>
+        <v>794</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" t="s" s="2">
@@ -28399,7 +28395,7 @@
         <v>44</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>78</v>
+        <v>789</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>42</v>
@@ -28411,19 +28407,19 @@
         <v>44</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ225" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="AK225" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="AK225" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL225" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM225" t="s" s="2">
-        <v>44</v>
+        <v>796</v>
       </c>
       <c r="AN225" t="s" s="2">
         <v>44</v>
@@ -28431,42 +28427,42 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
-        <v>681</v>
+        <v>44</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F226" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G226" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H226" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I226" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>71</v>
+        <v>341</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>682</v>
+        <v>798</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>683</v>
+        <v>799</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>74</v>
+        <v>800</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>245</v>
+        <v>801</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>44</v>
@@ -28515,25 +28511,25 @@
         <v>44</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>684</v>
+        <v>797</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>197</v>
+        <v>757</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>44</v>
+        <v>802</v>
       </c>
       <c r="AL226" t="s" s="2">
         <v>44</v>
@@ -28545,9 +28541,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="227" hidden="true">
+    <row r="227">
       <c r="A227" t="s" s="2">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28555,34 +28551,34 @@
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F227" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G227" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I227" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>273</v>
+        <v>664</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>777</v>
+        <v>804</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>778</v>
+        <v>805</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>779</v>
+        <v>806</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>780</v>
+        <v>807</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>44</v>
@@ -28607,13 +28603,13 @@
         <v>44</v>
       </c>
       <c r="W227" t="s" s="2">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="X227" t="s" s="2">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="Y227" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="Z227" t="s" s="2">
         <v>44</v>
@@ -28631,13 +28627,13 @@
         <v>44</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>44</v>
@@ -28646,16 +28642,16 @@
         <v>63</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>781</v>
+        <v>808</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>782</v>
+        <v>68</v>
       </c>
       <c r="AL227" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM227" t="s" s="2">
-        <v>783</v>
+        <v>44</v>
       </c>
       <c r="AN227" t="s" s="2">
         <v>44</v>
@@ -28663,7 +28659,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>784</v>
+        <v>809</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28686,20 +28682,16 @@
         <v>44</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>785</v>
+        <v>65</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="M228" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>788</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M228" s="2"/>
+      <c r="N228" s="2"/>
       <c r="O228" t="s" s="2">
         <v>44</v>
       </c>
@@ -28747,7 +28739,7 @@
         <v>44</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>784</v>
+        <v>67</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>42</v>
@@ -28759,19 +28751,19 @@
         <v>44</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>789</v>
+        <v>68</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>790</v>
+        <v>44</v>
       </c>
       <c r="AL228" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM228" t="s" s="2">
-        <v>791</v>
+        <v>44</v>
       </c>
       <c r="AN228" t="s" s="2">
         <v>44</v>
@@ -28779,18 +28771,18 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
-        <v>793</v>
+        <v>70</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F229" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G229" t="s" s="2">
         <v>44</v>
@@ -28802,16 +28794,16 @@
         <v>44</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>794</v>
+        <v>71</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>795</v>
+        <v>72</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>796</v>
+        <v>73</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>797</v>
+        <v>74</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
@@ -28861,7 +28853,7 @@
         <v>44</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>792</v>
+        <v>78</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>42</v>
@@ -28873,19 +28865,19 @@
         <v>44</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>798</v>
+        <v>68</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AL229" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM229" t="s" s="2">
-        <v>799</v>
+        <v>44</v>
       </c>
       <c r="AN229" t="s" s="2">
         <v>44</v>
@@ -28893,42 +28885,42 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
-        <v>44</v>
+        <v>678</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F230" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>341</v>
+        <v>71</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>801</v>
+        <v>679</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>802</v>
+        <v>680</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>803</v>
+        <v>74</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>804</v>
+        <v>245</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>44</v>
@@ -28977,25 +28969,25 @@
         <v>44</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>800</v>
+        <v>681</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>760</v>
+        <v>197</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>805</v>
+        <v>44</v>
       </c>
       <c r="AL230" t="s" s="2">
         <v>44</v>
@@ -29007,9 +28999,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29017,35 +29009,33 @@
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F231" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G231" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I231" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>667</v>
+        <v>813</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>809</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>810</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
         <v>44</v>
       </c>
@@ -29093,13 +29083,13 @@
         <v>44</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>44</v>
@@ -29108,7 +29098,7 @@
         <v>63</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>811</v>
+        <v>254</v>
       </c>
       <c r="AK231" t="s" s="2">
         <v>68</v>
@@ -29117,7 +29107,7 @@
         <v>44</v>
       </c>
       <c r="AM231" t="s" s="2">
-        <v>44</v>
+        <v>817</v>
       </c>
       <c r="AN231" t="s" s="2">
         <v>44</v>
@@ -29125,7 +29115,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29133,7 +29123,7 @@
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F232" t="s" s="2">
         <v>51</v>
@@ -29145,16 +29135,16 @@
         <v>44</v>
       </c>
       <c r="I232" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>65</v>
+        <v>819</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>66</v>
+        <v>820</v>
       </c>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
@@ -29181,13 +29171,13 @@
         <v>44</v>
       </c>
       <c r="W232" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="X232" t="s" s="2">
-        <v>44</v>
+        <v>820</v>
       </c>
       <c r="Y232" t="s" s="2">
-        <v>44</v>
+        <v>821</v>
       </c>
       <c r="Z232" t="s" s="2">
         <v>44</v>
@@ -29205,10 +29195,10 @@
         <v>44</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>67</v>
+        <v>818</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>51</v>
@@ -29217,14 +29207,14 @@
         <v>44</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ232" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AK232" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="AK232" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL232" t="s" s="2">
         <v>44</v>
       </c>
@@ -29232,467 +29222,11 @@
         <v>44</v>
       </c>
       <c r="AN232" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="233" hidden="true">
-      <c r="A233" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="B233" s="2"/>
-      <c r="C233" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D233" s="2"/>
-      <c r="E233" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F233" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J233" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K233" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N233" s="2"/>
-      <c r="O233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P233" s="2"/>
-      <c r="Q233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE233" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF233" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG233" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ233" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AK233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM233" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN233" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="234" hidden="true">
-      <c r="A234" t="s" s="2">
-        <v>814</v>
-      </c>
-      <c r="B234" s="2"/>
-      <c r="C234" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="D234" s="2"/>
-      <c r="E234" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F234" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H234" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I234" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J234" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K234" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="L234" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P234" s="2"/>
-      <c r="Q234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE234" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AF234" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG234" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ234" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AK234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM234" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN234" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="235" hidden="true">
-      <c r="A235" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="B235" s="2"/>
-      <c r="C235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D235" s="2"/>
-      <c r="E235" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F235" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I235" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J235" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="K235" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="L235" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="M235" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="N235" s="2"/>
-      <c r="O235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P235" s="2"/>
-      <c r="Q235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE235" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="AF235" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG235" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI235" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ235" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AK235" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AL235" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM235" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="AN235" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="236" hidden="true">
-      <c r="A236" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="B236" s="2"/>
-      <c r="C236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D236" s="2"/>
-      <c r="E236" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F236" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I236" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J236" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K236" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="L236" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="M236" s="2"/>
-      <c r="N236" s="2"/>
-      <c r="O236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P236" s="2"/>
-      <c r="Q236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W236" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="X236" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="Y236" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="Z236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE236" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="AF236" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG236" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI236" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ236" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="AK236" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AL236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM236" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN236" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN236">
+  <autoFilter ref="A1:AN232">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -29702,7 +29236,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI235">
+  <conditionalFormatting sqref="A2:AI231">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
